--- a/data/trans_dic/IMC_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,78; 31,59</t>
+          <t>24,23; 32,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,29; 36,22</t>
+          <t>27,59; 36,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,82; 30,03</t>
+          <t>21,48; 30,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,49; 40,87</t>
+          <t>23,89; 40,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,1; 17,29</t>
+          <t>11,04; 17,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,1; 24,52</t>
+          <t>17,3; 25,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,78; 26,94</t>
+          <t>18,64; 27,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,7; 28,33</t>
+          <t>16,36; 28,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,66; 23,89</t>
+          <t>18,66; 23,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,67; 29,62</t>
+          <t>23,69; 29,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21,02; 27,04</t>
+          <t>20,88; 26,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,24; 32,04</t>
+          <t>22,29; 32,13</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,64; 50,41</t>
+          <t>42,14; 50,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,47; 56,09</t>
+          <t>48,63; 56,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,65; 49,13</t>
+          <t>40,66; 49,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44,82; 56,81</t>
+          <t>45,44; 57,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,49; 30,6</t>
+          <t>23,25; 30,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,54; 42,94</t>
+          <t>34,45; 43,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,46; 42,48</t>
+          <t>34,79; 43,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,91; 45,77</t>
+          <t>34,17; 45,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,49; 39,85</t>
+          <t>34,62; 39,88</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>43,21; 48,5</t>
+          <t>43,09; 48,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>38,8; 44,46</t>
+          <t>39,04; 44,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>40,68; 49,01</t>
+          <t>40,36; 48,87</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>60,8; 68,73</t>
+          <t>61,12; 69,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>67,16; 74,06</t>
+          <t>66,69; 73,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>57,58; 65,32</t>
+          <t>57,57; 65,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,14; 60,87</t>
+          <t>51,76; 60,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,61; 43,05</t>
+          <t>35,33; 43,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>45,06; 52,95</t>
+          <t>45,09; 52,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,78; 47,85</t>
+          <t>39,46; 47,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,92; 42,93</t>
+          <t>35,96; 42,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>48,92; 54,48</t>
+          <t>48,87; 54,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>56,74; 62,5</t>
+          <t>57,0; 62,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>49,79; 55,47</t>
+          <t>49,61; 55,11</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>44,76; 50,36</t>
+          <t>45,01; 50,46</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,37; 75,82</t>
+          <t>67,36; 75,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>71,96; 79,19</t>
+          <t>71,94; 79,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>66,07; 73,42</t>
+          <t>65,82; 73,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>67,38; 77,6</t>
+          <t>67,34; 78,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>51,74; 60,0</t>
+          <t>51,13; 60,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,27; 61,78</t>
+          <t>53,3; 61,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,37; 58,57</t>
+          <t>50,56; 58,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,1; 55,62</t>
+          <t>49,13; 55,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60,49; 66,72</t>
+          <t>60,16; 66,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>63,91; 69,82</t>
+          <t>63,79; 69,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>59,23; 64,92</t>
+          <t>59,26; 65,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>59,12; 66,1</t>
+          <t>59,2; 66,22</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>73,7; 81,68</t>
+          <t>73,29; 81,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>72,22; 80,73</t>
+          <t>72,52; 80,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>71,01; 79,63</t>
+          <t>71,11; 79,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>72,25; 79,27</t>
+          <t>71,69; 78,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>63,57; 73,12</t>
+          <t>63,76; 73,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>66,97; 76,23</t>
+          <t>66,9; 75,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>63,94; 73,56</t>
+          <t>64,71; 73,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>58,55; 64,78</t>
+          <t>58,69; 65,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>69,97; 76,3</t>
+          <t>69,53; 76,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>71,01; 77,0</t>
+          <t>70,92; 77,33</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>69,29; 75,62</t>
+          <t>69,25; 75,72</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>66,17; 71,06</t>
+          <t>66,01; 70,83</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>71,88; 79,63</t>
+          <t>71,78; 79,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>78,47; 85,72</t>
+          <t>79,09; 85,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>76,02; 82,51</t>
+          <t>75,75; 82,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>71,03; 76,57</t>
+          <t>70,84; 76,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>75,44; 81,85</t>
+          <t>75,24; 81,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>77,31; 83,77</t>
+          <t>77,39; 83,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>70,03; 77,24</t>
+          <t>70,37; 77,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>70,77; 83,36</t>
+          <t>71,05; 84,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>75,13; 80,03</t>
+          <t>74,97; 80,05</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>79,1; 83,7</t>
+          <t>79,29; 83,72</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>73,68; 78,61</t>
+          <t>73,76; 78,87</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>71,82; 80,25</t>
+          <t>71,84; 80,5</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>57,64; 61,08</t>
+          <t>57,65; 61,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>63,75; 67,17</t>
+          <t>63,58; 67,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>58,94; 62,47</t>
+          <t>58,98; 62,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>61,01; 65,46</t>
+          <t>61,12; 65,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>45,59; 48,95</t>
+          <t>45,57; 48,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>52,6; 56,17</t>
+          <t>52,74; 56,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>50,49; 53,87</t>
+          <t>50,49; 54,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>50,9; 58,14</t>
+          <t>51,02; 58,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>52,04; 54,57</t>
+          <t>52,04; 54,51</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>58,52; 61,0</t>
+          <t>58,69; 61,13</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>55,19; 57,62</t>
+          <t>55,06; 57,56</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>56,31; 60,1</t>
+          <t>56,24; 60,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IMC_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,23; 32,2</t>
+          <t>23,73; 31,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,59; 36,64</t>
+          <t>27,54; 36,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,48; 30,07</t>
+          <t>21,3; 29,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,04; 17,54</t>
+          <t>11,07; 17,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,3; 25,19</t>
+          <t>16,81; 24,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,64; 27,1</t>
+          <t>18,41; 26,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,66; 23,65</t>
+          <t>18,44; 23,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,69; 29,57</t>
+          <t>23,74; 29,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,88; 26,91</t>
+          <t>21,26; 27,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,14; 50,05</t>
+          <t>42,19; 49,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,63; 56,34</t>
+          <t>48,79; 56,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,66; 49,28</t>
+          <t>40,85; 49,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,25; 30,82</t>
+          <t>23,68; 30,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,45; 43,13</t>
+          <t>34,51; 42,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,79; 43,11</t>
+          <t>34,67; 42,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,62; 39,88</t>
+          <t>34,54; 39,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>43,09; 48,58</t>
+          <t>42,99; 48,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>39,04; 44,86</t>
+          <t>38,98; 44,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>61,12; 69,22</t>
+          <t>60,91; 68,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,69; 73,81</t>
+          <t>66,77; 73,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>57,57; 65,39</t>
+          <t>57,66; 65,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,33; 43,03</t>
+          <t>35,41; 43,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>45,09; 52,77</t>
+          <t>45,08; 53,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,46; 47,12</t>
+          <t>39,72; 47,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>48,87; 54,46</t>
+          <t>48,74; 54,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>57,0; 62,45</t>
+          <t>56,97; 62,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>49,61; 55,11</t>
+          <t>49,97; 55,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,36; 75,84</t>
+          <t>67,05; 75,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>71,94; 79,56</t>
+          <t>71,95; 79,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,82; 73,48</t>
+          <t>65,55; 73,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>51,13; 60,04</t>
+          <t>51,3; 59,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,3; 61,85</t>
+          <t>53,23; 61,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,56; 58,56</t>
+          <t>50,4; 58,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60,16; 66,81</t>
+          <t>60,39; 66,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>63,79; 69,46</t>
+          <t>63,77; 69,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>59,26; 65,04</t>
+          <t>59,3; 65,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>73,29; 81,43</t>
+          <t>72,91; 81,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>72,52; 80,94</t>
+          <t>72,06; 80,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>71,11; 79,52</t>
+          <t>71,1; 79,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>63,76; 73,03</t>
+          <t>63,8; 72,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>66,9; 75,71</t>
+          <t>67,03; 76,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>64,71; 73,65</t>
+          <t>65,07; 74,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>69,53; 76,25</t>
+          <t>69,78; 76,05</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>70,92; 77,33</t>
+          <t>70,99; 77,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>69,25; 75,72</t>
+          <t>69,68; 75,5</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>71,78; 79,51</t>
+          <t>71,67; 79,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>79,09; 85,78</t>
+          <t>78,99; 85,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>75,75; 82,66</t>
+          <t>76,02; 82,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>75,24; 81,83</t>
+          <t>75,67; 82,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>77,39; 83,57</t>
+          <t>77,51; 83,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>70,37; 77,46</t>
+          <t>69,98; 77,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>74,97; 80,05</t>
+          <t>75,25; 80,24</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>79,29; 83,72</t>
+          <t>79,22; 83,85</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>73,76; 78,87</t>
+          <t>73,73; 78,6</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>57,65; 61,12</t>
+          <t>57,41; 60,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>63,58; 67,09</t>
+          <t>63,86; 67,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>58,98; 62,43</t>
+          <t>58,97; 62,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>45,57; 48,91</t>
+          <t>45,59; 49,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>52,74; 56,21</t>
+          <t>52,53; 56,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>50,49; 54,04</t>
+          <t>50,52; 54,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>52,04; 54,51</t>
+          <t>51,99; 54,41</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>58,69; 61,13</t>
+          <t>58,51; 60,95</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>55,06; 57,56</t>
+          <t>55,13; 57,62</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/IMC_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,73; 31,66</t>
+          <t>23,78; 31,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,54; 36,27</t>
+          <t>27,29; 36,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,3; 29,77</t>
+          <t>20,82; 30,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,89; 40,33</t>
+          <t>24,49; 40,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,07; 17,66</t>
+          <t>11,1; 17,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,81; 24,8</t>
+          <t>17,1; 24,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,41; 26,45</t>
+          <t>18,78; 26,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,36; 28,36</t>
+          <t>16,7; 28,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,44; 23,69</t>
+          <t>18,66; 23,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,74; 29,33</t>
+          <t>23,67; 29,62</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21,26; 27,0</t>
+          <t>21,02; 27,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,29; 32,13</t>
+          <t>22,24; 32,04</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,19; 49,96</t>
+          <t>42,64; 50,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,79; 56,39</t>
+          <t>48,47; 56,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,85; 49,05</t>
+          <t>40,65; 49,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>45,44; 57,61</t>
+          <t>44,82; 56,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,68; 30,79</t>
+          <t>23,49; 30,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,51; 42,82</t>
+          <t>34,54; 42,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,67; 42,95</t>
+          <t>34,46; 42,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,17; 45,69</t>
+          <t>33,91; 45,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,54; 39,72</t>
+          <t>34,49; 39,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>42,99; 48,76</t>
+          <t>43,21; 48,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>38,98; 44,99</t>
+          <t>38,8; 44,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>40,36; 48,87</t>
+          <t>40,68; 49,01</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>60,91; 68,72</t>
+          <t>60,8; 68,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,77; 73,98</t>
+          <t>67,16; 74,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>57,66; 65,37</t>
+          <t>57,58; 65,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>51,76; 60,87</t>
+          <t>52,14; 60,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,41; 43,12</t>
+          <t>35,61; 43,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>45,08; 53,09</t>
+          <t>45,06; 52,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,72; 47,49</t>
+          <t>39,78; 47,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,96; 42,92</t>
+          <t>35,92; 42,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>48,74; 54,34</t>
+          <t>48,92; 54,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>56,97; 62,42</t>
+          <t>56,74; 62,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>49,97; 55,41</t>
+          <t>49,79; 55,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>45,01; 50,46</t>
+          <t>44,76; 50,36</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,05; 75,44</t>
+          <t>67,37; 75,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>71,95; 79,75</t>
+          <t>71,96; 79,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,55; 73,37</t>
+          <t>66,07; 73,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>67,34; 78,57</t>
+          <t>67,38; 77,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>51,3; 59,9</t>
+          <t>51,74; 60,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,23; 61,79</t>
+          <t>53,27; 61,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,4; 58,51</t>
+          <t>50,37; 58,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,13; 55,57</t>
+          <t>49,1; 55,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60,39; 66,35</t>
+          <t>60,49; 66,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>63,77; 69,69</t>
+          <t>63,91; 69,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>59,3; 65,04</t>
+          <t>59,23; 64,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>59,2; 66,22</t>
+          <t>59,12; 66,1</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>72,91; 81,62</t>
+          <t>73,7; 81,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>72,06; 80,52</t>
+          <t>72,22; 80,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>71,1; 79,59</t>
+          <t>71,01; 79,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>71,69; 78,93</t>
+          <t>72,25; 79,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>63,8; 72,77</t>
+          <t>63,57; 73,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>67,03; 76,51</t>
+          <t>66,97; 76,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>65,07; 74,14</t>
+          <t>63,94; 73,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>58,69; 65,07</t>
+          <t>58,55; 64,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>69,78; 76,05</t>
+          <t>69,97; 76,3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>70,99; 77,25</t>
+          <t>71,01; 77,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>69,68; 75,5</t>
+          <t>69,29; 75,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>66,01; 70,83</t>
+          <t>66,17; 71,06</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>71,67; 79,66</t>
+          <t>71,88; 79,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>78,99; 85,88</t>
+          <t>78,47; 85,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>76,02; 82,52</t>
+          <t>76,02; 82,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>70,84; 76,74</t>
+          <t>71,03; 76,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>75,67; 82,14</t>
+          <t>75,44; 81,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>77,51; 83,76</t>
+          <t>77,31; 83,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>69,98; 77,5</t>
+          <t>70,03; 77,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>71,05; 84,37</t>
+          <t>70,77; 83,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>75,25; 80,24</t>
+          <t>75,13; 80,03</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>79,22; 83,85</t>
+          <t>79,1; 83,7</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>73,73; 78,6</t>
+          <t>73,68; 78,61</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>71,84; 80,5</t>
+          <t>71,82; 80,25</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>57,41; 60,98</t>
+          <t>57,64; 61,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>63,86; 67,15</t>
+          <t>63,75; 67,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>58,97; 62,49</t>
+          <t>58,94; 62,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>61,12; 65,53</t>
+          <t>61,01; 65,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>45,59; 49,0</t>
+          <t>45,59; 48,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>52,53; 56,02</t>
+          <t>52,6; 56,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>50,52; 54,09</t>
+          <t>50,49; 53,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>51,02; 58,31</t>
+          <t>50,9; 58,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>51,99; 54,41</t>
+          <t>52,04; 54,57</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>58,51; 60,95</t>
+          <t>58,52; 61,0</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>55,13; 57,62</t>
+          <t>55,19; 57,62</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>56,24; 60,36</t>
+          <t>56,31; 60,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IMC_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31,78%</t>
+          <t>33,22%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>27,1%</t>
+          <t>28,54%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,49; 40,87</t>
+          <t>25,38; 42,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,7; 28,33</t>
+          <t>17,2; 28,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,24; 32,04</t>
+          <t>23,48; 34,12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>51,02%</t>
+          <t>51,91%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>38,85%</t>
+          <t>45,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>44,5%</t>
+          <t>48,61%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44,82; 56,81</t>
+          <t>45,63; 57,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,91; 45,77</t>
+          <t>35,82; 66,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>40,68; 49,01</t>
+          <t>43,23; 61,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>56,43%</t>
+          <t>56,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>39,16%</t>
+          <t>39,13%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>47,96%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,14; 60,87</t>
+          <t>52,49; 61,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,92; 42,93</t>
+          <t>35,83; 42,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>44,76; 50,36</t>
+          <t>45,17; 50,73</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>71,53%</t>
+          <t>77,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>52,62%</t>
+          <t>52,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>62,05%</t>
+          <t>66,84%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>67,38; 77,6</t>
+          <t>67,69; 89,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,1; 55,62</t>
+          <t>48,91; 55,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>59,12; 66,1</t>
+          <t>59,6; 79,73</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>75,43%</t>
+          <t>75,36%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>61,78%</t>
+          <t>61,61%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>68,63%</t>
+          <t>68,59%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>72,25; 79,27</t>
+          <t>72,11; 79,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>58,55; 64,78</t>
+          <t>58,42; 64,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>66,17; 71,06</t>
+          <t>66,13; 70,97</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>75,52%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>84,68%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>81,98%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>75,8%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>82,58%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>79,48%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>73,78%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>78,93%</t>
+          <t>78,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>80,71%</t>
+          <t>81,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>73,81%</t>
+          <t>72,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>74,98%</t>
+          <t>80,98%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>77,59%</t>
+          <t>77,08%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>81,54%</t>
+          <t>82,94%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>76,34%</t>
+          <t>77,25%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>74,48%</t>
+          <t>79,02%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>71,88; 79,63</t>
+          <t>70,53; 80,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>78,47; 85,72</t>
+          <t>79,85; 88,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>76,02; 82,51</t>
+          <t>77,23; 86,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>71,03; 76,57</t>
+          <t>71,6; 79,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>75,44; 81,85</t>
+          <t>73,98; 82,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>77,31; 83,77</t>
+          <t>76,51; 85,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>70,03; 77,24</t>
+          <t>68,03; 77,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>70,77; 83,36</t>
+          <t>70,25; 91,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>75,13; 80,03</t>
+          <t>73,84; 80,35</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>79,1; 83,7</t>
+          <t>79,45; 85,96</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>73,68; 78,61</t>
+          <t>73,97; 80,62</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>71,82; 80,25</t>
+          <t>72,19; 88,34</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>59,32%</t>
+          <t>76,19%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>65,4%</t>
+          <t>79,86%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>60,71%</t>
+          <t>76,04%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>63,05%</t>
+          <t>71,21%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>47,26%</t>
+          <t>79,49%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>54,33%</t>
+          <t>80,09%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>52,28%</t>
+          <t>74,72%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>52,98%</t>
+          <t>72,21%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>53,21%</t>
+          <t>78,2%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>59,82%</t>
+          <t>80,0%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>56,45%</t>
+          <t>75,26%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>57,77%</t>
+          <t>71,79%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>69,5; 81,24</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>74,19; 84,72</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>70,69; 81,09</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>66,44; 75,36</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>74,12; 83,79</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>75,62; 84,7</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>69,13; 80,2</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>69,02; 75,36</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>74,35; 81,7</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>75,97; 83,34</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>71,17; 79,0</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>69,04; 74,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>59,32%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>65,4%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>60,71%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>64,98%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>47,26%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>54,33%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>52,28%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>55,11%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>53,21%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>59,82%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>56,45%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>59,97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>57,64; 61,08</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>63,75; 67,17</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>58,94; 62,47</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>61,01; 65,46</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>61,6; 74,65</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>45,59; 48,95</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>52,6; 56,17</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>50,49; 53,87</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>50,9; 58,14</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>51,48; 63,44</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>52,04; 54,57</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>58,52; 61,0</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>55,19; 57,62</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>56,31; 60,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>57,15; 66,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/IMC_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,78; 31,59</t>
+          <t>23,81; 31,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,29; 36,22</t>
+          <t>27,25; 36,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,82; 30,03</t>
+          <t>21,19; 30,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,38; 42,86</t>
+          <t>25,12; 41,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,1; 17,29</t>
+          <t>11,39; 17,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,1; 24,52</t>
+          <t>17,1; 24,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,78; 26,94</t>
+          <t>18,52; 27,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,2; 28,61</t>
+          <t>17,0; 29,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,66; 23,89</t>
+          <t>18,63; 23,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,67; 29,62</t>
+          <t>23,67; 29,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21,02; 27,04</t>
+          <t>21,22; 27,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,48; 34,12</t>
+          <t>23,12; 34,11</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,64; 50,41</t>
+          <t>42,41; 49,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,47; 56,09</t>
+          <t>48,9; 56,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,65; 49,13</t>
+          <t>41,0; 48,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>45,63; 57,91</t>
+          <t>44,96; 57,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,49; 30,6</t>
+          <t>23,47; 30,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,54; 42,94</t>
+          <t>34,62; 42,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,46; 42,48</t>
+          <t>34,33; 42,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,82; 66,94</t>
+          <t>35,88; 63,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,49; 39,85</t>
+          <t>34,64; 40,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>43,21; 48,5</t>
+          <t>43,02; 48,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>38,8; 44,46</t>
+          <t>38,99; 44,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>43,23; 61,62</t>
+          <t>42,92; 62,11</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>60,8; 68,73</t>
+          <t>61,24; 68,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>67,16; 74,06</t>
+          <t>67,15; 74,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>57,58; 65,32</t>
+          <t>57,54; 65,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,49; 61,22</t>
+          <t>52,62; 61,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,61; 43,05</t>
+          <t>35,49; 43,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>45,06; 52,95</t>
+          <t>45,07; 53,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,78; 47,85</t>
+          <t>39,9; 47,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,83; 42,79</t>
+          <t>35,73; 42,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>48,92; 54,48</t>
+          <t>48,64; 54,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>56,74; 62,5</t>
+          <t>56,97; 62,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>49,79; 55,47</t>
+          <t>49,92; 55,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>45,17; 50,73</t>
+          <t>44,98; 50,83</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,37; 75,82</t>
+          <t>67,31; 75,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>71,96; 79,19</t>
+          <t>72,17; 79,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>66,07; 73,42</t>
+          <t>65,72; 73,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>67,69; 89,26</t>
+          <t>67,73; 90,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>51,74; 60,0</t>
+          <t>51,24; 59,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,27; 61,78</t>
+          <t>53,21; 61,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,37; 58,57</t>
+          <t>50,48; 58,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,91; 55,38</t>
+          <t>49,4; 55,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60,49; 66,72</t>
+          <t>60,74; 66,75</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>63,91; 69,82</t>
+          <t>63,84; 69,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>59,23; 64,92</t>
+          <t>59,46; 65,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>59,6; 79,73</t>
+          <t>59,75; 79,77</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>73,7; 81,68</t>
+          <t>73,43; 81,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>72,22; 80,73</t>
+          <t>71,97; 80,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>71,01; 79,63</t>
+          <t>71,04; 79,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>72,11; 79,09</t>
+          <t>71,83; 78,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>63,57; 73,12</t>
+          <t>63,79; 73,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>66,97; 76,23</t>
+          <t>67,15; 76,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>63,94; 73,56</t>
+          <t>64,86; 74,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>58,42; 64,65</t>
+          <t>58,62; 64,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>69,97; 76,3</t>
+          <t>69,7; 76,38</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>71,01; 77,0</t>
+          <t>71,25; 77,37</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>69,29; 75,62</t>
+          <t>68,77; 75,31</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>66,13; 70,97</t>
+          <t>66,23; 70,87</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>70,53; 80,4</t>
+          <t>70,74; 80,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>79,85; 88,73</t>
+          <t>79,85; 88,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>77,23; 86,1</t>
+          <t>77,39; 85,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>71,6; 79,03</t>
+          <t>72,18; 79,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>73,98; 82,55</t>
+          <t>74,03; 82,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>76,51; 85,18</t>
+          <t>76,65; 85,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>68,03; 77,77</t>
+          <t>67,3; 77,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>70,25; 91,71</t>
+          <t>69,65; 92,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>73,84; 80,35</t>
+          <t>73,34; 80,19</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>79,45; 85,96</t>
+          <t>79,77; 86,04</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>73,97; 80,62</t>
+          <t>73,48; 80,46</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>72,19; 88,34</t>
+          <t>72,33; 88,89</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>69,5; 81,24</t>
+          <t>70,33; 81,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>74,19; 84,72</t>
+          <t>74,06; 84,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>70,69; 81,09</t>
+          <t>70,49; 81,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>66,44; 75,36</t>
+          <t>66,71; 75,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>74,12; 83,79</t>
+          <t>74,54; 84,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>75,62; 84,7</t>
+          <t>75,33; 84,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>69,13; 80,2</t>
+          <t>68,85; 79,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>69,02; 75,36</t>
+          <t>68,68; 75,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>74,35; 81,7</t>
+          <t>73,99; 81,43</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>75,97; 83,34</t>
+          <t>76,26; 83,03</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>71,17; 79,0</t>
+          <t>71,71; 79,04</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>69,04; 74,42</t>
+          <t>68,74; 74,33</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>57,64; 61,08</t>
+          <t>57,66; 61,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>63,75; 67,17</t>
+          <t>63,66; 67,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>58,94; 62,47</t>
+          <t>59,13; 62,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>61,6; 74,65</t>
+          <t>61,42; 73,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>45,59; 48,95</t>
+          <t>45,43; 49,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>52,6; 56,17</t>
+          <t>52,57; 56,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>50,49; 53,87</t>
+          <t>50,56; 54,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>51,48; 63,44</t>
+          <t>51,31; 63,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>52,04; 54,57</t>
+          <t>51,82; 54,35</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>58,52; 61,0</t>
+          <t>58,58; 61,05</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>55,19; 57,62</t>
+          <t>55,26; 57,7</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>57,15; 66,02</t>
+          <t>57,11; 65,2</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con sobrepeso u obesidad</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>135517</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>142851</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>102497</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>131381</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>65703</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>87975</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>86449</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>68332</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>201220</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>230825</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>188945</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>199713</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>116014; 154524</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>122416; 163529</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>85780; 121943</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>99369; 163943</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>53041; 81751</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>72323; 104403</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>70786; 104455</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>51731; 88339</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>177484; 227757</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>206458; 257720</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>166984; 213886</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>161805; 238666</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>336630</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>358016</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>259130</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>219163</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>168032</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>228645</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>208862</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>232195</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>504661</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>586661</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>467991</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>451358</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>309640; 363665</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>333607; 387420</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>235908; 281660</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>189822; 242769</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>145870; 192445</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>205628; 253781</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>185532; 229058</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>181665; 323862</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>468235; 542306</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>549084; 623314</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>435062; 498540</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>398534; 576658</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>765</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>413117</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>471625</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>402678</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>302627</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>269532</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>339415</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>277870</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>210470</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>682649</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>811040</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>680548</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>513098</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>389499; 436021</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>447812; 496473</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>376564; 427519</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>279873; 327227</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>243763; 295748</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>311051; 366885</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>254527; 302592</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>192162; 229019</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>643444; 720331</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>773025; 849724</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>645174; 714454</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>481213; 543787</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>369314</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>459501</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>437524</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>682433</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>282381</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>344350</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>341478</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>346980</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>651695</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>803851</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>779002</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1029413</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>347521; 389354</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>436194; 479185</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>412066; 460498</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>594840; 795819</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>260148; 303909</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>318341; 367818</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>316204; 365969</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>326950; 368205</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>621933; 683454</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>767778; 838212</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>745294; 814719</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>920246; 1228610</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1094</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>298215</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>321160</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>349867</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>411576</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>271344</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>313511</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>329730</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>327083</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>569559</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>634671</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>679596</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>738658</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>281875; 313004</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>301823; 338051</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>329461; 370185</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>392246; 430398</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>251975; 289266</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>293060; 332617</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>307361; 351197</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>311192; 344469</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>542901; 594884</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>609751; 662102</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>644794; 706136</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>713330; 763274</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>970</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>216836</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>256838</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>260794</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>270591</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>266295</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>267522</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>253430</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>475405</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>483131</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>524360</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>514224</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>745996</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>203121; 229971</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>242198; 269930</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>246203; 273465</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>257670; 283213</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>251412; 280350</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>252095; 281246</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>233867; 269252</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>408911; 543764</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>459638; 502574</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>504299; 543971</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>489105; 535536</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>682833; 839141</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>154917</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>187633</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>175239</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>190313</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>251755</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>269792</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>249401</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>268553</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>406671</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>457425</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>424640</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>458866</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>143001; 164989</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>173989; 198829</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>162454; 186802</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>178266; 202022</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>236085; 266148</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>253752; 284671</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>229823; 266241</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>255424; 281223</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>384777; 423504</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>436059; 474753</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>404643; 445978</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>439363; 475094</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1904</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2047</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1897</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>2173</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1540</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1717</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1624</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>2870</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>3444</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>3764</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>3521</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>5043</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1924545</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2197624</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1987728</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>2208083</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1575042</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1851209</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1747221</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1929019</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>3499587</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>4048833</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>3734948</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>4137102</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1870667; 1980387</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2139359; 2254473</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1935748; 2047170</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>2087287; 2493642</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1514167; 1636648</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1791319; 1908600</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1690039; 1806197</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1795803; 2223087</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>3408281; 3574539</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>3964416; 4131460</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>3656367; 3817441</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>3939613; 4497479</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>